--- a/database.xlsx
+++ b/database.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Звенигородский Вадим\bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Звенигородский\vadtelegrambot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Stickers" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,10 @@
     <t>file_id</t>
   </si>
   <si>
-    <t>'AAMCAQADGQEAA8hiC2Xxi-ocI2pwCJphsum-SXJtRAACUgEAAiAqAAFERe6IQ2kd5rEBAAdtAAMjBA'</t>
+    <t>привет</t>
   </si>
   <si>
-    <t>привет</t>
+    <t>CAACAgIAAxkBAAP6Yh3gGS64cUoFmCetDHxtn3oZ6VcAAkgBAAJ7TioQQ77E0Xv6lP8jBA</t>
   </si>
 </sst>
 </file>
@@ -72,8 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -354,16 +355,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="88.85546875" customWidth="1"/>
+    <col min="2" max="2" width="90.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -376,11 +377,14 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Ключевая фраза</t>
   </si>
@@ -36,6 +36,24 @@
   </si>
   <si>
     <t>CAACAgIAAxkBAAP6Yh3gGS64cUoFmCetDHxtn3oZ6VcAAkgBAAJ7TioQQ77E0Xv6lP8jBA</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAAIBHGIohRF2jEEb7mEmFBC5fLT8e4L2AAINAQACUomRIyPURYx4xMd7IwQ</t>
+  </si>
+  <si>
+    <t>плач</t>
+  </si>
+  <si>
+    <t>Ответ</t>
+  </si>
+  <si>
+    <t>и тебе привет</t>
+  </si>
+  <si>
+    <t>давай, до свидания</t>
+  </si>
+  <si>
+    <t>пока</t>
   </si>
 </sst>
 </file>
@@ -355,38 +373,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="90.140625" customWidth="1"/>
+    <col min="2" max="2" width="87.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -14,17 +14,12 @@
   <sheets>
     <sheet name="Stickers" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Ключевая фраза</t>
   </si>
@@ -32,28 +27,22 @@
     <t>file_id</t>
   </si>
   <si>
+    <t>Ответ</t>
+  </si>
+  <si>
     <t>привет</t>
   </si>
   <si>
     <t>CAACAgIAAxkBAAP6Yh3gGS64cUoFmCetDHxtn3oZ6VcAAkgBAAJ7TioQQ77E0Xv6lP8jBA</t>
   </si>
   <si>
-    <t>CAACAgIAAxkBAAIBHGIohRF2jEEb7mEmFBC5fLT8e4L2AAINAQACUomRIyPURYx4xMd7IwQ</t>
-  </si>
-  <si>
-    <t>плач</t>
-  </si>
-  <si>
-    <t>Ответ</t>
-  </si>
-  <si>
     <t>и тебе привет</t>
   </si>
   <si>
-    <t>давай, до свидания</t>
-  </si>
-  <si>
-    <t>пока</t>
+    <t>до свидания</t>
+  </si>
+  <si>
+    <t>и вам не хворать</t>
   </si>
 </sst>
 </file>
@@ -373,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,38 +383,30 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -1,67 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Звенигородский\vadtelegrambot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Stickers" sheetId="1" r:id="rId1"/>
+    <sheet name="Stickers" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Ключевая фраза</t>
-  </si>
-  <si>
-    <t>file_id</t>
-  </si>
-  <si>
-    <t>Ответ</t>
-  </si>
-  <si>
-    <t>привет</t>
-  </si>
-  <si>
-    <t>CAACAgIAAxkBAAP6Yh3gGS64cUoFmCetDHxtn3oZ6VcAAkgBAAJ7TioQQ77E0Xv6lP8jBA</t>
-  </si>
-  <si>
-    <t>и тебе привет</t>
-  </si>
-  <si>
-    <t>до свидания</t>
-  </si>
-  <si>
-    <t>и вам не хворать</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -80,22 +47,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -361,52 +387,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="87.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="87.140625" customWidth="1" min="2" max="2"/>
+    <col width="19.28515625" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Ключевая фраза</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>file_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ответ</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>привет</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>CAACAgIAAxkBAAP6Yh3gGS64cUoFmCetDHxtn3oZ6VcAAkgBAAJ7TioQQ77E0Xv6lP8jBA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>и тебе привет</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>до свидания</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>и вам не хворать</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>дерево</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CAACAgIAAxkBAAIB92Ixx8aF5pBDM8zKoV8xgz3YZErpAAIWAQACUomRI1hEaMPWbwABOCME</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -392,7 +392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -463,6 +463,18 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>вадик</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CAACAgIAAxkBAAICB2I5jl5j1LKESCtSIHLFgs05kXD2AAIoEgACsJtxSHvFqJ5Z81PdIwQ</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Stickers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Users" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -395,7 +396,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -454,24 +455,66 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>дерево</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CAACAgIAAxkBAAIB92Ixx8aF5pBDM8zKoV8xgz3YZErpAAIWAQACUomRI1hEaMPWbwABOCME</t>
+          <t>до свидания</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>и вам не хворать</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>вадик</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CAACAgIAAxkBAAICB2I5jl5j1LKESCtSIHLFgs05kXD2AAIoEgACsJtxSHvFqJ5Z81PdIwQ</t>
+          <t>до свидания</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>и вам не хворать</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>имя</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>пол</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>класс</t>
         </is>
       </c>
     </row>
